--- a/data_out2020/changes/Improvement within Each Dimension - by Context.xlsx
+++ b/data_out2020/changes/Improvement within Each Dimension - by Context.xlsx
@@ -635,13 +635,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.5538276423515</v>
+        <v>-3.55382764239391</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.49145131386435</v>
+        <v>-3.49145131390669</v>
       </c>
       <c r="J2" t="n">
         <v>0.062</v>
@@ -810,13 +810,13 @@
         <v>2016</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.34216316050858</v>
+        <v>-2.34216316059596</v>
       </c>
       <c r="H7" t="n">
         <v>2019</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.08738734281882</v>
+        <v>-2.08738734290627</v>
       </c>
       <c r="J7" t="n">
         <v>0.255</v>
@@ -894,13 +894,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.25656447761325</v>
+        <v>-2.25656447755996</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.21670478683775</v>
+        <v>-1.2167047867817</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -1034,13 +1034,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.82139827906965</v>
+        <v>-1.82139827896535</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>0.206383304667629</v>
+        <v>0.206383304770843</v>
       </c>
       <c r="J6" t="n">
         <v>2.028</v>
@@ -1153,13 +1153,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.0750087851745</v>
+        <v>-2.07500878520731</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.89874320059088</v>
+        <v>-1.89874320062355</v>
       </c>
       <c r="J2" t="n">
         <v>0.176</v>
@@ -1188,13 +1188,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.16232707209405</v>
+        <v>-1.16232707215889</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.16293284993725</v>
+        <v>-1.16293285000207</v>
       </c>
       <c r="J3" t="n">
         <v>-0.001</v>
@@ -1412,13 +1412,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.52282624374033</v>
+        <v>-2.52282624374013</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.39725564619083</v>
+        <v>-2.39725564619074</v>
       </c>
       <c r="J2" t="n">
         <v>0.126</v>
@@ -1587,13 +1587,13 @@
         <v>2016</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.58910532361113</v>
+        <v>-3.58910532360262</v>
       </c>
       <c r="H7" t="n">
         <v>2019</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.26555316177779</v>
+        <v>-3.26555316176934</v>
       </c>
       <c r="J7" t="n">
         <v>0.324</v>
@@ -1671,13 +1671,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.05312212118244</v>
+        <v>-2.05312212122068</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.83013095687076</v>
+        <v>-1.83013095690854</v>
       </c>
       <c r="J2" t="n">
         <v>0.223</v>
@@ -1811,13 +1811,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.4465552644662</v>
+        <v>-1.44655526454908</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.25152521891328</v>
+        <v>-1.25152521899617</v>
       </c>
       <c r="J6" t="n">
         <v>0.195</v>
@@ -1930,13 +1930,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.97215098088802</v>
+        <v>-1.97215098088535</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.82752120952668</v>
+        <v>-1.82752120952425</v>
       </c>
       <c r="J2" t="n">
         <v>0.145</v>
@@ -2070,13 +2070,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.161135392919847</v>
+        <v>-0.161135392917917</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>0.122722112093685</v>
+        <v>0.122722112095644</v>
       </c>
       <c r="J6" t="n">
         <v>0.284</v>
@@ -2189,13 +2189,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.9636468082743</v>
+        <v>-1.96364680832279</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.92924945993456</v>
+        <v>-1.92924945998237</v>
       </c>
       <c r="J2" t="n">
         <v>0.034</v>
@@ -2224,13 +2224,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.896725054970885</v>
+        <v>-0.89672505506592</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.915826965218814</v>
+        <v>-0.915826965313648</v>
       </c>
       <c r="J3" t="n">
         <v>-0.019</v>
@@ -2448,13 +2448,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.93350434509081</v>
+        <v>-1.93350434512145</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.9319603943058</v>
+        <v>-1.93196039433653</v>
       </c>
       <c r="J2" t="n">
         <v>0.002</v>
@@ -2518,13 +2518,13 @@
         <v>2016</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.89638256156863</v>
+        <v>-0.896382561628876</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.05259826263465</v>
+        <v>-1.05259826269468</v>
       </c>
       <c r="J4" t="n">
         <v>-0.156</v>
@@ -2707,13 +2707,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.82815510573028</v>
+        <v>-1.82815510574959</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.74510541950755</v>
+        <v>-1.74510541952819</v>
       </c>
       <c r="J2" t="n">
         <v>0.083</v>
@@ -2742,13 +2742,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>0.276339452496871</v>
+        <v>0.27633945245051</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.135806536117458</v>
+        <v>-0.135806536163649</v>
       </c>
       <c r="J3" t="n">
         <v>-0.412</v>
@@ -2966,13 +2966,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.22024100298519</v>
+        <v>-2.22024100294325</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.11675823211986</v>
+        <v>-2.11675823207754</v>
       </c>
       <c r="J2" t="n">
         <v>0.103</v>
@@ -3106,13 +3106,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.75205808200678</v>
+        <v>-1.75205808192683</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.53129728717801</v>
+        <v>-1.53129728709773</v>
       </c>
       <c r="J6" t="n">
         <v>0.221</v>
@@ -3225,13 +3225,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.76424260392386</v>
+        <v>-2.76424260388828</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.73189707579864</v>
+        <v>-2.73189707576306</v>
       </c>
       <c r="J2" t="n">
         <v>0.032</v>
@@ -3295,13 +3295,13 @@
         <v>2016</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.28572214688545</v>
+        <v>-3.28572214681457</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.50252220649192</v>
+        <v>-3.50252220642115</v>
       </c>
       <c r="J4" t="n">
         <v>-0.217</v>
@@ -3484,13 +3484,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.7140144586697</v>
+        <v>-1.71401445866912</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.62167423878497</v>
+        <v>-1.62167423878348</v>
       </c>
       <c r="J2" t="n">
         <v>0.092</v>
@@ -3624,13 +3624,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.21441506842398</v>
+        <v>-2.21441506841633</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.89276725715699</v>
+        <v>-1.89276725714955</v>
       </c>
       <c r="J6" t="n">
         <v>0.322</v>
@@ -3743,13 +3743,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.39846783495788</v>
+        <v>-1.39846783494355</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.36985696216637</v>
+        <v>-1.36985696215215</v>
       </c>
       <c r="J2" t="n">
         <v>0.029</v>
@@ -3848,13 +3848,13 @@
         <v>2016</v>
       </c>
       <c r="G5" t="n">
-        <v>0.229331355781369</v>
+        <v>0.229331355804198</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>0.225087942918377</v>
+        <v>0.225087942941184</v>
       </c>
       <c r="J5" t="n">
         <v>-0.004</v>
@@ -4002,13 +4002,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.71562714927326</v>
+        <v>-1.71562714927509</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.70113343984272</v>
+        <v>-1.70113343984342</v>
       </c>
       <c r="J2" t="n">
         <v>0.014</v>
@@ -4177,13 +4177,13 @@
         <v>2016</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.569355033351913</v>
+        <v>-0.569355033355417</v>
       </c>
       <c r="H7" t="n">
         <v>2019</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.14192808100744</v>
+        <v>-0.141928081010539</v>
       </c>
       <c r="J7" t="n">
         <v>0.427</v>
@@ -4261,13 +4261,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.78329332615795</v>
+        <v>-4.78329332616306</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.71019887493815</v>
+        <v>-4.71019887494382</v>
       </c>
       <c r="J2" t="n">
         <v>0.073</v>
@@ -4296,13 +4296,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.89323957071944</v>
+        <v>-3.89323957072296</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.32685908392281</v>
+        <v>-4.32685908392579</v>
       </c>
       <c r="J3" t="n">
         <v>-0.434</v>
@@ -4520,13 +4520,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.75627015579792</v>
+        <v>-1.75627015583766</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.55235318041862</v>
+        <v>-1.55235318045711</v>
       </c>
       <c r="J2" t="n">
         <v>0.204</v>
@@ -4695,13 +4695,13 @@
         <v>2016</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.74054226686281</v>
+        <v>-1.74054226694426</v>
       </c>
       <c r="H7" t="n">
         <v>2019</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.23047965585788</v>
+        <v>-1.23047965593934</v>
       </c>
       <c r="J7" t="n">
         <v>0.51</v>
@@ -4779,13 +4779,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.57896283237819</v>
+        <v>-3.57896283235071</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.50295530820229</v>
+        <v>-3.50295530817517</v>
       </c>
       <c r="J2" t="n">
         <v>0.076</v>
@@ -4884,13 +4884,13 @@
         <v>2016</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.94621476332836</v>
+        <v>-2.94621476326881</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.89210604553788</v>
+        <v>-2.89210604547827</v>
       </c>
       <c r="J5" t="n">
         <v>0.054</v>
@@ -5038,13 +5038,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.56526964689629</v>
+        <v>-2.56526964685439</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.39741396468621</v>
+        <v>-2.39741396464398</v>
       </c>
       <c r="J2" t="n">
         <v>0.168</v>
@@ -5178,13 +5178,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.32420954301858</v>
+        <v>-2.32420954293093</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.00493528651608</v>
+        <v>-2.00493528642883</v>
       </c>
       <c r="J6" t="n">
         <v>0.319</v>
@@ -5297,13 +5297,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.28507163177931</v>
+        <v>-3.2850716318187</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.23977865660237</v>
+        <v>-3.23977865664204</v>
       </c>
       <c r="J2" t="n">
         <v>0.045</v>
@@ -5402,13 +5402,13 @@
         <v>2016</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.49861290273743</v>
+        <v>-3.49861290280535</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.45550175279901</v>
+        <v>-3.45550175286717</v>
       </c>
       <c r="J5" t="n">
         <v>0.043</v>
@@ -5556,13 +5556,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.89876219455512</v>
+        <v>-1.8987621945261</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.8850070075654</v>
+        <v>-1.88500700753677</v>
       </c>
       <c r="J2" t="n">
         <v>0.014</v>
@@ -5626,13 +5626,13 @@
         <v>2016</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.58305870458952</v>
+        <v>-1.58305870453247</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.71342626127074</v>
+        <v>-1.71342626121345</v>
       </c>
       <c r="J4" t="n">
         <v>-0.13</v>
@@ -5815,13 +5815,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.44202651130293</v>
+        <v>-1.4420265112975</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.37729086752988</v>
+        <v>-1.37729086752435</v>
       </c>
       <c r="J2" t="n">
         <v>0.065</v>
@@ -5850,13 +5850,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.662509565368618</v>
+        <v>-0.662509565364186</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.971650465729216</v>
+        <v>-0.97165046572519</v>
       </c>
       <c r="J3" t="n">
         <v>-0.309</v>
@@ -6074,13 +6074,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.76022617088131</v>
+        <v>-2.76022617091402</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.66020821057471</v>
+        <v>-2.66020821060716</v>
       </c>
       <c r="J2" t="n">
         <v>0.1</v>
@@ -6179,13 +6179,13 @@
         <v>2016</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.12626213277847</v>
+        <v>-3.12626213284343</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.76835054702211</v>
+        <v>-2.76835054708679</v>
       </c>
       <c r="J5" t="n">
         <v>0.358</v>
@@ -6333,13 +6333,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.49423958679295</v>
+        <v>-1.49423958681135</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.28230080167068</v>
+        <v>-1.28230080169039</v>
       </c>
       <c r="J2" t="n">
         <v>0.212</v>
@@ -6473,13 +6473,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.921020577394134</v>
+        <v>-0.92102057743245</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.771017899913488</v>
+        <v>-0.771017899951764</v>
       </c>
       <c r="J6" t="n">
         <v>0.15</v>
@@ -6592,13 +6592,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.21765103103693</v>
+        <v>-2.21765103104013</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.11115062051144</v>
+        <v>-2.11115062051429</v>
       </c>
       <c r="J2" t="n">
         <v>0.107</v>
@@ -6627,13 +6627,13 @@
         <v>2016</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.56308477790016</v>
+        <v>-3.56308477789323</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.63676077436325</v>
+        <v>-3.63676077435612</v>
       </c>
       <c r="J3" t="n">
         <v>-0.074</v>
@@ -6851,13 +6851,13 @@
         <v>2016</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.14716150808175</v>
+        <v>-2.14716150809475</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.9063814817741</v>
+        <v>-1.906381481786</v>
       </c>
       <c r="J2" t="n">
         <v>0.241</v>
@@ -6991,13 +6991,13 @@
         <v>2016</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.54727486735397</v>
+        <v>-2.54727486736976</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.10069635005948</v>
+        <v>-2.10069635007514</v>
       </c>
       <c r="J6" t="n">
         <v>0.447</v>
